--- a/company_revenue.xlsx
+++ b/company_revenue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7115019F-5724-454B-89A3-C51E3D32F554}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B0838-ECA2-4F47-AD58-B01FEC8EBB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{EA936B73-60FC-B143-9D5D-96CB5D9998B8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Company</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,26 @@
   </si>
   <si>
     <t>China</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,7 +471,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -477,6 +497,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2">
+        <v>514</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
@@ -485,45 +508,96 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3">
+        <v>415</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>397</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>393</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>356</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>290</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>287</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/company_revenue.xlsx
+++ b/company_revenue.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hideakiehara/virtualenv/py24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851B0838-ECA2-4F47-AD58-B01FEC8EBB63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77756189-B4FB-AF45-92B4-C898D1FB24EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{EA936B73-60FC-B143-9D5D-96CB5D9998B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Revenue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
